--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1623,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3269,6 +3269,14 @@
       </c>
       <c r="B205" s="6">
         <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="5">
+        <v>44062</v>
+      </c>
+      <c r="B206" s="6">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
